--- a/src/main/resources/excel/2 Questions words.xlsx
+++ b/src/main/resources/excel/2 Questions words.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 What for" sheetId="1" state="visible" r:id="rId3"/>
@@ -1603,7 +1603,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1613,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -1797,7 +1797,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="109.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="109.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,7 +1807,7 @@
       <c r="B1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       <c r="B2" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="B3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       <c r="B4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="B5" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="B6" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       <c r="B7" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       <c r="B8" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="B9" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>431</v>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       <c r="B10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="B11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>437</v>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="B12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       <c r="B13" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       <c r="B14" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="B15" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>449</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="71.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,7 +2002,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2178,15 +2178,16 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2197,7 @@
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2207,7 +2208,7 @@
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2218,7 +2219,7 @@
       <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2229,7 +2230,7 @@
       <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2240,7 +2241,7 @@
       <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2251,7 +2252,7 @@
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2262,7 +2263,7 @@
       <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2273,7 +2274,7 @@
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2284,7 +2285,7 @@
       <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2295,7 +2296,7 @@
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2306,7 +2307,7 @@
       <c r="B11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2317,7 +2318,7 @@
       <c r="B12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2328,7 +2329,7 @@
       <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2339,7 +2340,7 @@
       <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2350,7 +2351,7 @@
       <c r="B15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2380,7 +2381,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="79.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="79.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +2391,7 @@
       <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2401,7 +2402,7 @@
       <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2412,7 +2413,7 @@
       <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2423,7 +2424,7 @@
       <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2434,7 +2435,7 @@
       <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2445,7 +2446,7 @@
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2456,7 +2457,7 @@
       <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2467,7 +2468,7 @@
       <c r="B8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2478,7 +2479,7 @@
       <c r="B9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2489,7 +2490,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2500,7 +2501,7 @@
       <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2511,7 +2512,7 @@
       <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2522,7 +2523,7 @@
       <c r="B13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2533,7 +2534,7 @@
       <c r="B14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2544,7 +2545,7 @@
       <c r="B15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2575,7 +2576,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2770,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,7 +2780,7 @@
       <c r="B1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2790,7 +2791,7 @@
       <c r="B2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2801,7 +2802,7 @@
       <c r="B3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2812,7 +2813,7 @@
       <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2823,7 +2824,7 @@
       <c r="B5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2834,7 +2835,7 @@
       <c r="B6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2845,7 +2846,7 @@
       <c r="B7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2867,7 +2868,7 @@
       <c r="B9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2878,7 +2879,7 @@
       <c r="B10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2889,7 +2890,7 @@
       <c r="B11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2900,7 +2901,7 @@
       <c r="B12" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2911,7 +2912,7 @@
       <c r="B13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2922,7 +2923,7 @@
       <c r="B14" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2933,7 +2934,7 @@
       <c r="B15" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3158,7 +3159,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3169,7 @@
       <c r="B1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
       <c r="B2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3190,7 +3191,7 @@
       <c r="B3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3201,7 +3202,7 @@
       <c r="B4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3212,7 +3213,7 @@
       <c r="B5" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3223,7 +3224,7 @@
       <c r="B6" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3234,7 +3235,7 @@
       <c r="B7" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3245,7 +3246,7 @@
       <c r="B8" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3256,7 +3257,7 @@
       <c r="B9" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3267,7 +3268,7 @@
       <c r="B10" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -3278,7 +3279,7 @@
       <c r="B11" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3289,18 +3290,18 @@
       <c r="B12" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3311,7 +3312,7 @@
       <c r="B14" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -3322,7 +3323,7 @@
       <c r="B15" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3352,7 +3353,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,7 +3363,7 @@
       <c r="B1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3373,7 +3374,7 @@
       <c r="B2" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3384,7 +3385,7 @@
       <c r="B3" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>368</v>
       </c>
     </row>
@@ -3395,7 +3396,7 @@
       <c r="B4" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3406,7 +3407,7 @@
       <c r="B5" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -3417,7 +3418,7 @@
       <c r="B6" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3428,7 +3429,7 @@
       <c r="B7" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3439,7 +3440,7 @@
       <c r="B8" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3450,7 +3451,7 @@
       <c r="B9" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3461,7 +3462,7 @@
       <c r="B10" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3472,7 +3473,7 @@
       <c r="B11" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3483,7 +3484,7 @@
       <c r="B12" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3494,7 +3495,7 @@
       <c r="B13" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>398</v>
       </c>
     </row>
@@ -3505,7 +3506,7 @@
       <c r="B14" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       <c r="B15" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>404</v>
       </c>
     </row>
